--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/I.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/I.XLSX
@@ -133,7 +133,7 @@
     <t>TAINNA PADELA BRAGA</t>
   </si>
   <si>
-    <t> </t>
+    <t>PAMELI BORGES LAGE MOURAO</t>
   </si>
   <si>
     <t> </t>
@@ -151,7 +151,7 @@
     <t>3705</t>
   </si>
   <si>
-    <t> </t>
+    <t>4224</t>
   </si>
   <si>
     <t> </t>
@@ -3523,7 +3523,7 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>PAMELI BORGES LAGE MOURAO</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
@@ -3550,7 +3550,7 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>PAMELI BORGES LAGE MOURAO</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>PAMELI BORGES LAGE MOURAO</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>PAMELI BORGES LAGE MOURAO</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3903,7 +3903,7 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>4224</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
@@ -3930,7 +3930,7 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>4224</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4224</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4224</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>PAMELI BORGES LAGE MOURAO</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6632,7 +6632,7 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>PAMELI BORGES LAGE MOURAO</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>4224</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
@@ -6964,7 +6964,7 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>4224</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/I.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/I.XLSX
@@ -130,7 +130,7 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>TAINNA PADELA BRAGA</t>
+    <t>BEATRIZ FREIRE DE MELO PEIXOTO</t>
   </si>
   <si>
     <t>PAMELI BORGES LAGE MOURAO</t>
@@ -148,7 +148,7 @@
     <t> </t>
   </si>
   <si>
-    <t>3705</t>
+    <t>4061</t>
   </si>
   <si>
     <t>4224</t>
@@ -172,10 +172,10 @@
     <t>I</t>
   </si>
   <si>
-    <t>TAINNA PADELA BRAGA</t>
+    <t>PAMELI BORGES LAGE MOURAO</t>
   </si>
   <si>
-    <t>Matr.: 3705</t>
+    <t>Matr.: 4224</t>
   </si>
   <si>
     <r>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>BEATRIZ FREIRE DE MELO PEIXOTO</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
@@ -3544,7 +3544,7 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>BEATRIZ FREIRE DE MELO PEIXOTO</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>BEATRIZ FREIRE DE MELO PEIXOTO</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>BEATRIZ FREIRE DE MELO PEIXOTO</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>3705</v>
+        <v>4061</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
@@ -3924,7 +3924,7 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>3705</v>
+        <v>4061</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>3705</v>
+        <v>4061</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>3705</v>
+        <v>4061</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>PAMELI BORGES LAGE MOURAO</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 3705</v>
+        <v>Matr.: 4224</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
@@ -6603,7 +6603,7 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>BEATRIZ FREIRE DE MELO PEIXOTO</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>TAINNA PADELA BRAGA</v>
+        <v>BEATRIZ FREIRE DE MELO PEIXOTO</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>3705</v>
+        <v>4061</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>3705</v>
+        <v>4061</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
